--- a/transaction2.xlsx
+++ b/transaction2.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,9 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,11 +57,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +449,7 @@
       <c r="D2" s="1" t="n">
         <v>5.355</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4" t="n">
         <v>5.355</v>
       </c>
     </row>
@@ -462,7 +466,7 @@
       <c r="D3" s="1" t="n">
         <v>6.255</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>6.255</v>
       </c>
     </row>
@@ -479,7 +483,7 @@
       <c r="D4" s="1" t="n">
         <v>7.155</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4" t="n">
         <v>7.155</v>
       </c>
     </row>

--- a/transaction2.xlsx
+++ b/transaction2.xlsx
@@ -57,10 +57,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -406,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -429,12 +428,7 @@
           <t>product_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -443,14 +437,11 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="1" t="n">
         <v>5.355</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>5.355</v>
+      <c r="D2" s="3" t="n">
+        <v>4.819500000000001</v>
       </c>
     </row>
     <row r="3">
@@ -460,14 +451,11 @@
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>6.255</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>6.255</v>
+      <c r="D3" s="3" t="n">
+        <v>5.6295</v>
       </c>
     </row>
     <row r="4">
@@ -477,14 +465,11 @@
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <v>7.155</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>7.155</v>
+      <c r="D4" s="3" t="n">
+        <v>6.439500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/transaction2.xlsx
+++ b/transaction2.xlsx
@@ -57,9 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -428,7 +429,11 @@
           <t>product_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -437,11 +442,11 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>5.355</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>4.819500000000001</v>
       </c>
     </row>
     <row r="3">
@@ -451,11 +456,11 @@
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="3" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>6.255</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>5.6295</v>
       </c>
     </row>
     <row r="4">
@@ -465,11 +470,11 @@
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="3" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>7.155</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>6.439500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/transaction2.xlsx
+++ b/transaction2.xlsx
@@ -139,6 +139,90 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -401,7 +485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -480,5 +564,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>